--- a/biology/Botanique/Dinema_polybulbon/Dinema_polybulbon.xlsx
+++ b/biology/Botanique/Dinema_polybulbon/Dinema_polybulbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinema est un genre de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire du Mexique, d'Amérique centrale et des Caraïbes et ne comprenant actuellement qu'une espèce acceptée, Dinema polybulbon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinema est un genre de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire du Mexique, d'Amérique centrale et des Caraïbes et ne comprenant actuellement qu'une espèce acceptée, Dinema polybulbon.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dinema sont des plantes épiphytes ou lithophytes. La plante porte des pseudobulbes de 10 mm de long et 6 mm de large, espacés de 1 à 1,5 mm sur un rhizome rampant. Les feuilles mesurent 15 mm de long et 8 mm de large et sont vert brillant. L'inflorescence est unique ou porte rarement deux fleurs. Ces dernières mesurent 15 mm de diamètre ; les sépales et pétales sont brun-jaune, le labelle blanc. Le fruit est une capsule ellipsoïde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dinema sont des plantes épiphytes ou lithophytes. La plante porte des pseudobulbes de 10 mm de long et 6 mm de large, espacés de 1 à 1,5 mm sur un rhizome rampant. Les feuilles mesurent 15 mm de long et 8 mm de large et sont vert brillant. L'inflorescence est unique ou porte rarement deux fleurs. Ces dernières mesurent 15 mm de diamètre ; les sépales et pétales sont brun-jaune, le labelle blanc. Le fruit est une capsule ellipsoïde.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinema pousse au Mexique, au Belize, au Salvador, au Guatemala, au Honduras, au Nicaragua, à Cuba et en Jamaïque. On les retrouve dans les forêts mixtes humides entre 1 000 et 1 400 mètres d'altitude ; l'espèce est peu commune dans son habitat. La floraison a lieu en novembre et les fruits se développent en août.
 </t>
@@ -573,7 +589,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se reconnaît à sa petite taille et ses fleurs solitaires  au labelle simple blanc à jaunâtre et aux prolongements en forme de cornicule de la colonne. C'est un genre monotypique.
 </t>
